--- a/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_2.xlsx
+++ b/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_2.xlsx
@@ -480,10 +480,10 @@
         <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.0833242380952382</v>
+        <v>-0.08332423809523817</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.0833242380952382</v>
+        <v>-0.08332423809523817</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>-0.116</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.01711084267631094</v>
+        <v>-0.01711084267631098</v>
       </c>
     </row>
     <row r="3">
@@ -501,13 +501,13 @@
         <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.0964310476190476</v>
+        <v>-0.09643104761904758</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.08353109885473188</v>
+        <v>-0.08353109885473185</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.01289994876431572</v>
+        <v>-0.01289994876431573</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
@@ -525,10 +525,10 @@
         <v>-0.09803226190476186</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.08373795961422555</v>
+        <v>-0.08373795961422552</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.01429430229053631</v>
+        <v>-0.01429430229053634</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
@@ -543,20 +543,20 @@
         <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.0946637142857143</v>
+        <v>-0.09466371428571431</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.08394482037371923</v>
+        <v>-0.08394482037371918</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.01071889391199507</v>
+        <v>-0.01071889391199513</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
         <v>-0.404</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.01821434418324289</v>
+        <v>-0.0182143441832429</v>
       </c>
     </row>
     <row r="6">
@@ -567,14 +567,18 @@
         <v>-0.1012625238095238</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.08415168113321289</v>
+        <v>-0.08415168113321286</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.01711084267631094</v>
-      </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+        <v>-0.01711084267631098</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.013072850340136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -584,10 +588,10 @@
         <v>-0.09926276190476199</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.08435854189270656</v>
+        <v>-0.08435854189270653</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.01490422001205544</v>
+        <v>-0.01490422001205546</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -601,10 +605,10 @@
         <v>-0.1007283333333334</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.08456540265220024</v>
+        <v>-0.08456540265220019</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01616293068113318</v>
+        <v>-0.01616293068113323</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -618,10 +622,10 @@
         <v>-0.1091309047619048</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.0847722634116939</v>
+        <v>-0.08477226341169387</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02435864135021094</v>
+        <v>-0.02435864135021097</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -635,10 +639,10 @@
         <v>-0.1145361904761905</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.08497912417118757</v>
+        <v>-0.08497912417118754</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.02955706630500297</v>
+        <v>-0.029557066305003</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -652,10 +656,10 @@
         <v>-0.1220021428571429</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.08518598493068125</v>
+        <v>-0.08518598493068122</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03681615792646166</v>
+        <v>-0.03681615792646169</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -669,10 +673,10 @@
         <v>-0.1349328095238095</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.08539284569017491</v>
+        <v>-0.08539284569017488</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.04953996383363463</v>
+        <v>-0.04953996383363465</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -686,10 +690,10 @@
         <v>-0.1371960952380953</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.08559970644966858</v>
+        <v>-0.08559970644966855</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.05159638878842673</v>
+        <v>-0.05159638878842676</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -703,10 +707,10 @@
         <v>-0.1443300952380953</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.08580656720916226</v>
+        <v>-0.08580656720916223</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05852352802893306</v>
+        <v>-0.05852352802893308</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -720,10 +724,10 @@
         <v>-0.1544000952380953</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.08601342796865592</v>
+        <v>-0.0860134279686559</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.06838666726943941</v>
+        <v>-0.06838666726943944</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -737,10 +741,10 @@
         <v>-0.1658719523809525</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.08622028872814959</v>
+        <v>-0.08622028872814956</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07965166365280286</v>
+        <v>-0.07965166365280289</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -751,10 +755,10 @@
         <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1860687142857144</v>
+        <v>-0.1860687142857143</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.08642714948764327</v>
+        <v>-0.08642714948764324</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>-0.0996415647980711</v>
@@ -771,7 +775,7 @@
         <v>-0.2031309523809525</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.08663401024713693</v>
+        <v>-0.08663401024713691</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>-0.1164969421338156</v>
@@ -788,7 +792,7 @@
         <v>-0.2225968095238096</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.0868408710066306</v>
+        <v>-0.08684087100663059</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>-0.135755938517179</v>
@@ -805,7 +809,7 @@
         <v>-0.2481313333333335</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.08704773176612428</v>
+        <v>-0.08704773176612425</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>-0.1610836015672092</v>
@@ -822,10 +826,10 @@
         <v>-0.2738648095238097</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.08725459252561794</v>
+        <v>-0.08725459252561792</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1866102169981917</v>
+        <v>-0.1866102169981918</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -836,10 +840,10 @@
         <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.308062904761905</v>
+        <v>-0.3080629047619049</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.08746145328511161</v>
+        <v>-0.0874614532851116</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>-0.2206014514767933</v>
@@ -853,13 +857,13 @@
         <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.3539240952380954</v>
+        <v>-0.3539240952380955</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.08766831404460529</v>
+        <v>-0.08766831404460526</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2662557811934901</v>
+        <v>-0.2662557811934902</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -873,10 +877,10 @@
         <v>-0.3960601904761907</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.08787517480409895</v>
+        <v>-0.08787517480409893</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3081850156720917</v>
+        <v>-0.3081850156720918</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -890,7 +894,7 @@
         <v>-0.4406675714285716</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.08808203556359262</v>
+        <v>-0.08808203556359261</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>-0.352585535864979</v>
@@ -907,7 +911,7 @@
         <v>-0.4882626666666669</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.0882888963230863</v>
+        <v>-0.08828889632308627</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>-0.3999737703435806</v>
@@ -924,7 +928,7 @@
         <v>-0.5387931904761907</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.08849575708257996</v>
+        <v>-0.08849575708257995</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>-0.4502974333936107</v>
@@ -941,10 +945,10 @@
         <v>-0.591329428571429</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.08870261784207363</v>
+        <v>-0.08870261784207362</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.5026268107293553</v>
+        <v>-0.5026268107293554</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -958,7 +962,7 @@
         <v>-0.6481275238095243</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.08890947860156731</v>
+        <v>-0.08890947860156728</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>-0.559218045207957</v>
@@ -972,13 +976,13 @@
         <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.6920607142857148</v>
+        <v>-0.6920607142857149</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.08911633936106098</v>
+        <v>-0.08911633936106096</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.6029443749246538</v>
+        <v>-0.6029443749246539</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -992,7 +996,7 @@
         <v>-0.734799428571429</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.08932320012055464</v>
+        <v>-0.08932320012055463</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>-0.6454762284508744</v>
@@ -1009,7 +1013,7 @@
         <v>-0.7657986666666672</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.08953006088004832</v>
+        <v>-0.08953006088004829</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>-0.6762686057866188</v>
@@ -1026,7 +1030,7 @@
         <v>-0.7935340000000005</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.08973692163954199</v>
+        <v>-0.08973692163954197</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>-0.7037970783604586</v>
@@ -1043,7 +1047,7 @@
         <v>-0.799536428571429</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.08994378239903565</v>
+        <v>-0.08994378239903564</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>-0.7095926461723934</v>
@@ -1060,7 +1064,7 @@
         <v>-0.7852634761904767</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.09015064315852933</v>
+        <v>-0.0901506431585293</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>-0.6951128330319474</v>
@@ -1077,7 +1081,7 @@
         <v>-0.7454546190476194</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.090357503918023</v>
+        <v>-0.09035750391802298</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>-0.6550971151295965</v>
@@ -1094,10 +1098,10 @@
         <v>-0.700987666666667</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.09056436467751666</v>
+        <v>-0.09056436467751665</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6104233019891503</v>
+        <v>-0.6104233019891504</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1111,7 +1115,7 @@
         <v>-0.6401899523809528</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.09077122543701034</v>
+        <v>-0.09077122543701033</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>-0.5494187269439424</v>
@@ -1128,7 +1132,7 @@
         <v>-0.5862594285714289</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.09097808619650401</v>
+        <v>-0.09097808619650399</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>-0.4952813423749249</v>
@@ -1145,7 +1149,7 @@
         <v>-0.5359967142857145</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.09118494695599767</v>
+        <v>-0.09118494695599766</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>-0.4448117673297168</v>
@@ -1162,7 +1166,7 @@
         <v>-0.4875992380952384</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.09139180771549135</v>
+        <v>-0.09139180771549134</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>-0.396207430379747</v>
@@ -1179,10 +1183,10 @@
         <v>-0.435200666666667</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.09159866847498502</v>
+        <v>-0.091598668474985</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.3436019981916819</v>
+        <v>-0.343601998191682</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1193,7 +1197,7 @@
         <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.3819389523809526</v>
+        <v>-0.3819389523809527</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>-0.09180552923447868</v>
@@ -1213,7 +1217,7 @@
         <v>-0.3204046666666669</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.09201238999397236</v>
+        <v>-0.09201238999397235</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>-0.2283922766726945</v>
@@ -1230,10 +1234,10 @@
         <v>-0.2697390952380954</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.09221925075346603</v>
+        <v>-0.09221925075346601</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1775198444846293</v>
+        <v>-0.1775198444846294</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1247,7 +1251,7 @@
         <v>-0.2330064761904763</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.09242611151295971</v>
+        <v>-0.09242611151295969</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>-0.1405803646775166</v>
@@ -1264,7 +1268,7 @@
         <v>-0.2077352857142858</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.09263297227245337</v>
+        <v>-0.09263297227245336</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>-0.1151023134418324</v>
@@ -1281,10 +1285,10 @@
         <v>-0.191661761904762</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.09283983303194704</v>
+        <v>-0.09283983303194702</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.09882192887281493</v>
+        <v>-0.09882192887281495</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1301,7 +1305,7 @@
         <v>-0.0930466937914407</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.08481635382760697</v>
+        <v>-0.08481635382760699</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1315,10 +1319,10 @@
         <v>-0.1630620476190477</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.09325355455093438</v>
+        <v>-0.09325355455093437</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.06980849306811331</v>
+        <v>-0.06980849306811329</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1332,10 +1336,10 @@
         <v>-0.1535331428571429</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.09346041531042805</v>
+        <v>-0.09346041531042804</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.06007272754671487</v>
+        <v>-0.06007272754671489</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1349,10 +1353,10 @@
         <v>-0.1421342380952382</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.09366727606992173</v>
+        <v>-0.09366727606992171</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.04846696202531645</v>
+        <v>-0.04846696202531646</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1366,10 +1370,10 @@
         <v>-0.1321340476190477</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.09387413682941539</v>
+        <v>-0.09387413682941538</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.03825991078963228</v>
+        <v>-0.0382599107896323</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1386,7 +1390,7 @@
         <v>-0.09408099758890906</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.02965257383966242</v>
+        <v>-0.02965257383966244</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1403,7 +1407,7 @@
         <v>-0.09428785834840273</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.02518104641350211</v>
+        <v>-0.02518104641350209</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1417,10 +1421,10 @@
         <v>-0.1150016190476191</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.0944947191078964</v>
+        <v>-0.09449471910789639</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.02050689993972273</v>
+        <v>-0.02050689993972274</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1434,10 +1438,10 @@
         <v>-0.1146663333333334</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.09470157986739007</v>
+        <v>-0.09470157986739006</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.01996475346594334</v>
+        <v>-0.01996475346594336</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1451,10 +1455,10 @@
         <v>-0.1139985238095239</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.09490844062688375</v>
+        <v>-0.09490844062688374</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.01909008318264013</v>
+        <v>-0.01909008318264015</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1502,10 +1506,10 @@
         <v>-0.1117352380952382</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.09552902290536476</v>
+        <v>-0.09552902290536475</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.0162062151898734</v>
+        <v>-0.01620621518987343</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1519,7 +1523,7 @@
         <v>-0.1054681904761905</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.09573588366485843</v>
+        <v>-0.09573588366485841</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>-0.009732306811332123</v>
@@ -1553,10 +1557,10 @@
         <v>-0.09440361904761907</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.09614960518384577</v>
+        <v>-0.09614960518384576</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.001745986136226702</v>
+        <v>0.001745986136226688</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1573,7 +1577,7 @@
         <v>-0.09635646594333944</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.004849581675708189</v>
+        <v>-0.004849581675708203</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1590,7 +1594,7 @@
         <v>-0.0965633267028331</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.007105244725738327</v>
+        <v>-0.007105244725738341</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1635,13 +1639,13 @@
         <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.09920119047619054</v>
+        <v>-0.09920119047619053</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>-0.09718390898131411</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.002017281494876427</v>
+        <v>-0.002017281494876413</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1706,10 +1710,10 @@
         <v>-0.1038681428571429</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.0980113520192888</v>
+        <v>-0.09801135201928879</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.005856790837854078</v>
+        <v>-0.005856790837854092</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1726,7 +1730,7 @@
         <v>-0.09821821277878247</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.002982168173598504</v>
+        <v>-0.002982168173598518</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1740,10 +1744,10 @@
         <v>-0.09899728571428573</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.09842507353827615</v>
+        <v>-0.09842507353827613</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.0005722121760095844</v>
+        <v>-0.0005722121760095983</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1794,7 +1798,7 @@
         <v>-0.09904565581675714</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01821434418324289</v>
+        <v>-0.0182143441832429</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1808,10 +1812,10 @@
         <v>-0.1115954761904762</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.09925251657625081</v>
+        <v>-0.09925251657625082</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.01234295961422543</v>
+        <v>-0.01234295961422542</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1842,10 +1846,10 @@
         <v>-0.09966623809523815</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.09966623809523815</v>
+        <v>-0.09966623809523817</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1859,10 +1863,10 @@
         <v>-0.1068678095238096</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1068678095238096</v>
+        <v>-0.1020995816326531</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0</v>
+        <v>-0.00476822789115644</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1876,10 +1880,10 @@
         <v>-0.1141345714285714</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1141345714285714</v>
+        <v>-0.1045329251700681</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>-0.009601646258503321</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1893,10 +1897,10 @@
         <v>-0.1243318095238096</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1243318095238096</v>
+        <v>-0.106966268707483</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>-0.01736554081632653</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1910,10 +1914,10 @@
         <v>-0.1254675714285715</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1254675714285715</v>
+        <v>-0.109399612244898</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>-0.01606795918367343</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1927,10 +1931,10 @@
         <v>-0.1270690000000001</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1270690000000001</v>
+        <v>-0.111832955782313</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>-0.01523604421768709</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1944,10 +1948,10 @@
         <v>-0.1281385714285715</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1281385714285715</v>
+        <v>-0.114266299319728</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>-0.01387227210884351</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1961,10 +1965,10 @@
         <v>-0.1300697142857144</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1300697142857144</v>
+        <v>-0.116699642857143</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.01337007142857141</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1978,10 +1982,10 @@
         <v>-0.1290057142857143</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1290057142857143</v>
+        <v>-0.1191329863945579</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.009872727891156396</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1995,10 +1999,10 @@
         <v>-0.1334720476190477</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1334720476190477</v>
+        <v>-0.1215663299319729</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.01190571768707482</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2012,10 +2016,10 @@
         <v>-0.1370725238095238</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1370725238095238</v>
+        <v>-0.1239996734693878</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0</v>
+        <v>-0.013072850340136</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2029,10 +2033,10 @@
         <v>-0.134339761904762</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.134339761904762</v>
+        <v>-0.1264330170068028</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.007906744897959145</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2046,10 +2050,10 @@
         <v>-0.1348061428571429</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1348061428571429</v>
+        <v>-0.1288663605442178</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.005939782312925079</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2063,10 +2067,10 @@
         <v>-0.1368704761904762</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1368704761904762</v>
+        <v>-0.1312997040816328</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.005570772108843464</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2196,10 +2200,10 @@
         <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.154965261904762</v>
+        <v>-0.1549652619047621</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.154965261904762</v>
+        <v>-0.1549652619047621</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2219,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,7 +2252,7 @@
         <v>-0.116</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.01711084267631094</v>
+        <v>-0.01711084267631098</v>
       </c>
     </row>
     <row r="3">
@@ -2272,7 +2276,15 @@
         <v>-0.404</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.01821434418324289</v>
+        <v>-0.0182143441832429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.013072850340136</v>
       </c>
     </row>
   </sheetData>
